--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_21.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>70211.94115255159</v>
+        <v>112794.8912839466</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728809</v>
+        <v>9102620.618728815</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>113.4449997649659</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>251.8021835353216</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>99.3450804962429</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>260.4976434014323</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,7 +990,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I6" t="n">
         <v>61.42221998250818</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>38.39834678541102</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -1105,7 +1105,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>144.5450396847797</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>339.0399185806814</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>32.64956439616962</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.3768222575565</v>
+        <v>63.57678144609353</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1312,7 +1312,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1373,16 +1373,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1421,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>219.3567277916633</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1534,22 +1534,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>83.59830597394803</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1610,10 +1610,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1661,10 +1661,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>81.1220065286378</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.1485339723819</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.37682225755661</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>45.199959188537</v>
@@ -1807,19 +1807,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>9.275596830496628</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1889,16 +1889,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3567277916629</v>
+        <v>26.64360395382558</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>48.74576742341589</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,16 +2014,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>94.93365366419864</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>339.0399185806818</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>281.7170166114086</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>28.44734925172055</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,10 +2318,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>221.002178698296</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>355.546756558266</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2527,16 +2527,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>94.63926978364034</v>
+        <v>129.024624796403</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>269.5134569480836</v>
+        <v>383.562181210802</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2764,16 +2764,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>201.0891638436807</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>280.1033070984085</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>46.58646588932489</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2956,22 +2956,22 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>18.37682225755661</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>11.00429467105823</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3013,10 +3013,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,10 +3029,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>221.0021786982965</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3044,7 +3044,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>311.4936872159398</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3092,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>22.99033455509902</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3196,10 +3196,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3241,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>143.4822953483838</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>342.196593030168</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3484,13 +3484,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>155.211488636581</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3512,10 +3512,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>350.5766081898796</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3636,7 +3636,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8879277888687</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3658,19 +3658,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3712,13 +3712,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>28.51033041214353</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>269.5134569480835</v>
+        <v>339.0399185806818</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>124.1699884042478</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3940,13 +3940,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>178.9253501451549</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>129.7857003665477</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>323.9918595228957</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4071,7 +4071,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
         <v>61.42221998250818</v>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4189,19 +4189,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>281.6126679114865</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>439.7312344186087</v>
+        <v>1352.60098147425</v>
       </c>
       <c r="C2" t="n">
-        <v>439.7312344186087</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="D2" t="n">
-        <v>439.7312344186087</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E2" t="n">
-        <v>53.94298182036446</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036446</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2527.529492695215</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2273.767707333307</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1942.704819989736</v>
+        <v>1739.200821538372</v>
       </c>
       <c r="W2" t="n">
-        <v>1589.936164719622</v>
+        <v>1739.200821538372</v>
       </c>
       <c r="X2" t="n">
-        <v>1216.470406458542</v>
+        <v>1739.200821538372</v>
       </c>
       <c r="Y2" t="n">
-        <v>826.3310744827305</v>
+        <v>1739.200821538372</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4428,22 +4428,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>336.276983312403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>336.276983312403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>336.276983312403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>336.276983312403</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F4" t="n">
-        <v>336.276983312403</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G4" t="n">
-        <v>336.276983312403</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H4" t="n">
         <v>235.9284171545819</v>
@@ -4486,7 +4486,7 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,43 +4495,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>336.276983312403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>336.276983312403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>336.276983312403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>336.276983312403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>336.276983312403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>336.276983312403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>336.276983312403</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.944160717209</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="C5" t="n">
-        <v>1177.981643776797</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="D5" t="n">
-        <v>1177.981643776797</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="E5" t="n">
-        <v>792.1933911785532</v>
+        <v>881.5237953436019</v>
       </c>
       <c r="F5" t="n">
-        <v>381.2074863889456</v>
+        <v>470.5378905539944</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>470.5378905539944</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781331</v>
+        <v>1267.312047941846</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>138.3857151273827</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C7" t="n">
-        <v>138.3857151273827</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>138.3857151273827</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>138.3857151273827</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>138.3857151273827</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>138.3857151273827</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>138.3857151273827</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587809</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>138.3857151273827</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="U7" t="n">
-        <v>138.3857151273827</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="V7" t="n">
-        <v>138.3857151273827</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="W7" t="n">
-        <v>138.3857151273827</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="X7" t="n">
-        <v>138.3857151273827</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y7" t="n">
-        <v>138.3857151273827</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1920.409918978289</v>
+        <v>576.3714747656866</v>
       </c>
       <c r="C8" t="n">
-        <v>1551.447402037877</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.181703431127</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E8" t="n">
-        <v>807.3934508328825</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F8" t="n">
-        <v>396.407546043275</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2664.169733042294</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2664.169733042294</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2664.169733042294</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2410.407947680385</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2079.345060336814</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1726.5764050667</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>1353.11064680562</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>962.9713148298083</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,13 +4881,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4905,19 +4905,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4945,19 +4945,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816297</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.9054987607762</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C11" t="n">
-        <v>53.94298182036446</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D11" t="n">
-        <v>53.94298182036446</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036446</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036446</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2256.941971675474</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>1925.879084331904</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W11" t="n">
-        <v>1573.11042906179</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X11" t="n">
-        <v>1199.64467080071</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y11" t="n">
-        <v>809.505338824898</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>368.8844281164668</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L12" t="n">
-        <v>773.5003462121387</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M12" t="n">
-        <v>1297.64725977017</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
-        <v>1851.373795869721</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2291.509718890065</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018223</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036446</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036446</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036446</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5206,43 +5206,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>781.1711973675267</v>
+        <v>808.6937513590203</v>
       </c>
       <c r="C14" t="n">
-        <v>412.208680427115</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="D14" t="n">
-        <v>53.94298182036446</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U14" t="n">
-        <v>2615.207670282225</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V14" t="n">
-        <v>2284.144782938654</v>
+        <v>2311.667336930148</v>
       </c>
       <c r="W14" t="n">
-        <v>1931.37612766854</v>
+        <v>1958.898681660034</v>
       </c>
       <c r="X14" t="n">
-        <v>1557.91036940746</v>
+        <v>1585.432923398954</v>
       </c>
       <c r="Y14" t="n">
-        <v>1167.771037431648</v>
+        <v>1195.293591423142</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>368.8844281164668</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>773.5003462121387</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1297.64725977017</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1851.373795869721</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2291.509718890065</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2627.754532504894</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E16" t="n">
-        <v>709.5665374816297</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837193</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I16" t="n">
         <v>99.59950625323012</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5443,43 +5443,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064343</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064343</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064343</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064343</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.9054987607761</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C17" t="n">
-        <v>53.94298182036445</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D17" t="n">
         <v>53.94298182036445</v>
@@ -5513,19 +5513,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5537,28 +5537,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2256.941971675474</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V17" t="n">
-        <v>1925.879084331904</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W17" t="n">
-        <v>1573.11042906179</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X17" t="n">
-        <v>1199.64467080071</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y17" t="n">
-        <v>809.505338824898</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204941</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615926</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M18" t="n">
         <v>1194.968834417902</v>
@@ -5613,22 +5613,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>500.820796875036</v>
+        <v>530.7441767280769</v>
       </c>
       <c r="C19" t="n">
-        <v>500.820796875036</v>
+        <v>361.80799380017</v>
       </c>
       <c r="D19" t="n">
-        <v>500.820796875036</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E19" t="n">
-        <v>500.820796875036</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F19" t="n">
-        <v>500.820796875036</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G19" t="n">
-        <v>331.8209966133684</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H19" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
         <v>53.94298182036445</v>
@@ -5695,28 +5695,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T19" t="n">
-        <v>500.820796875036</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U19" t="n">
-        <v>500.820796875036</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V19" t="n">
-        <v>500.820796875036</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W19" t="n">
-        <v>500.820796875036</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X19" t="n">
-        <v>500.820796875036</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y19" t="n">
-        <v>500.820796875036</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1920.409918978289</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="C20" t="n">
-        <v>1551.447402037878</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="D20" t="n">
-        <v>1193.181703431127</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="E20" t="n">
-        <v>807.393450832883</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="F20" t="n">
-        <v>396.4075460432754</v>
+        <v>756.4694329640045</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036446</v>
+        <v>338.5056248621913</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533143</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018223</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018223</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018223</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X20" t="n">
-        <v>2697.149091018223</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y20" t="n">
-        <v>2307.009759042411</v>
+        <v>1167.455337753612</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
         <v>2525.076107152626</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>546.4805193761946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>546.4805193761946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5917,43 +5917,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064343</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064343</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064343</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X22" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1491.915471247702</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="C23" t="n">
-        <v>1268.68094731003</v>
+        <v>1568.120975752609</v>
       </c>
       <c r="D23" t="n">
-        <v>1268.68094731003</v>
+        <v>1209.855277145859</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117852</v>
+        <v>824.0670245476144</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>413.0811197580069</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036445</v>
@@ -5987,13 +5987,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6011,28 +6011,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X23" t="n">
-        <v>2268.654643287636</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>1878.515311311824</v>
+        <v>2323.683332757143</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
@@ -6069,40 +6069,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K25" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T25" t="n">
-        <v>632.5337622027571</v>
+        <v>2566.821187183472</v>
       </c>
       <c r="U25" t="n">
-        <v>343.360151857325</v>
+        <v>2277.64757683804</v>
       </c>
       <c r="V25" t="n">
-        <v>343.360151857325</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6200,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1491.915471247702</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="C26" t="n">
-        <v>1122.952954307291</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="D26" t="n">
-        <v>1122.952954307291</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="E26" t="n">
-        <v>737.1647017090463</v>
+        <v>852.3654332875499</v>
       </c>
       <c r="F26" t="n">
-        <v>326.1787969194388</v>
+        <v>441.3795284979423</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
         <v>2642.120401548716</v>
@@ -6257,19 +6257,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V26" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W26" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X26" t="n">
-        <v>2268.654643287636</v>
+        <v>2014.892857925728</v>
       </c>
       <c r="Y26" t="n">
-        <v>1878.515311311824</v>
+        <v>1624.753525949916</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
@@ -6309,10 +6309,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K28" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>2566.821187183472</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>2277.64757683804</v>
       </c>
       <c r="V28" t="n">
-        <v>525.0086166875648</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W28" t="n">
-        <v>235.5914466506042</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X28" t="n">
-        <v>235.5914466506042</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y28" t="n">
-        <v>235.5914466506042</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1268.68094731003</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C29" t="n">
-        <v>1268.68094731003</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="D29" t="n">
-        <v>1268.68094731003</v>
+        <v>1133.649772640952</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117852</v>
+        <v>747.861520042708</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>336.8756152531004</v>
       </c>
       <c r="G29" t="n">
         <v>53.94298182036446</v>
@@ -6461,13 +6461,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6488,25 +6488,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>2418.885877611043</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W29" t="n">
-        <v>2418.885877611043</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X29" t="n">
-        <v>2045.420119349963</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y29" t="n">
-        <v>1655.280787374151</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>368.8844281164668</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>773.5003462121387</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1297.64725977017</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036446</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036446</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J31" t="n">
         <v>53.94298182036446</v>
@@ -6643,28 +6643,28 @@
         <v>728.1289842064343</v>
       </c>
       <c r="R31" t="n">
-        <v>717.0135350437492</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S31" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T31" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U31" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V31" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W31" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X31" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1491.915471247703</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C32" t="n">
-        <v>1268.68094731003</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D32" t="n">
-        <v>1268.68094731003</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E32" t="n">
-        <v>882.8926947117852</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036446</v>
+        <v>368.5830699172734</v>
       </c>
       <c r="H32" t="n">
         <v>53.94298182036446</v>
@@ -6719,31 +6719,31 @@
         <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X32" t="n">
-        <v>2268.654643287636</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y32" t="n">
-        <v>1878.515311311824</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="33">
@@ -6777,19 +6777,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
         <v>2188.831293537797</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036446</v>
+        <v>415.489254012808</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036446</v>
+        <v>415.489254012808</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036446</v>
+        <v>415.489254012808</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036446</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036446</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J34" t="n">
         <v>53.94298182036446</v>
@@ -6889,19 +6889,19 @@
         <v>728.1289842064343</v>
       </c>
       <c r="U34" t="n">
-        <v>598.044640063212</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V34" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036446</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036446</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036446</v>
+        <v>438.7118141694737</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1386.09000478155</v>
+        <v>1512.612574238668</v>
       </c>
       <c r="C35" t="n">
-        <v>1241.158393318536</v>
+        <v>1143.650057298256</v>
       </c>
       <c r="D35" t="n">
-        <v>882.8926947117852</v>
+        <v>785.3843586915057</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>399.5961060932614</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>399.5961060932614</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6953,34 +6953,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V35" t="n">
-        <v>2112.324418312744</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W35" t="n">
-        <v>1759.555763042629</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X35" t="n">
-        <v>1386.09000478155</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y35" t="n">
-        <v>1386.09000478155</v>
+        <v>1899.21241430279</v>
       </c>
     </row>
     <row r="36">
@@ -6990,73 +6990,73 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7102,43 +7102,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064343</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064343</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064343</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064343</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064343</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="W37" t="n">
-        <v>438.7118141694737</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X37" t="n">
-        <v>210.7222632714564</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036446</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1580.775345511217</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C38" t="n">
-        <v>1211.812828570805</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D38" t="n">
-        <v>1211.812828570805</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E38" t="n">
-        <v>826.024575972561</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036446</v>
@@ -7169,13 +7169,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036471</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
         <v>881.2824271224077</v>
@@ -7211,13 +7211,13 @@
         <v>2697.149091018223</v>
       </c>
       <c r="W38" t="n">
-        <v>2344.380435748109</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X38" t="n">
-        <v>1970.914677487029</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y38" t="n">
-        <v>1580.775345511217</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="39">
@@ -7251,19 +7251,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
         <v>2188.831293537797</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036446</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F40" t="n">
         <v>53.94298182036446</v>
@@ -7360,22 +7360,22 @@
         <v>728.1289842064343</v>
       </c>
       <c r="T40" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U40" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V40" t="n">
-        <v>53.94298182036446</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036446</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036446</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036446</v>
+        <v>699.3306706588146</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1491.915471247702</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C41" t="n">
-        <v>1122.952954307291</v>
+        <v>1551.447402037878</v>
       </c>
       <c r="D41" t="n">
-        <v>1122.952954307291</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E41" t="n">
-        <v>737.1647017090463</v>
+        <v>807.393450832883</v>
       </c>
       <c r="F41" t="n">
-        <v>326.1787969194388</v>
+        <v>396.4075460432754</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036446</v>
@@ -7412,49 +7412,49 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.654643287636</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y41" t="n">
-        <v>1878.515311311824</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>473.4444960005475</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C43" t="n">
-        <v>473.4444960005475</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D43" t="n">
-        <v>473.4444960005475</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E43" t="n">
-        <v>473.4444960005475</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F43" t="n">
-        <v>473.4444960005475</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
         <v>53.94298182036446</v>
@@ -7588,31 +7588,31 @@
         <v>728.1289842064343</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064343</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064343</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064343</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064343</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="V43" t="n">
-        <v>473.4444960005475</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="W43" t="n">
-        <v>473.4444960005475</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="X43" t="n">
-        <v>473.4444960005475</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y43" t="n">
-        <v>473.4444960005475</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1546.94416071721</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="C44" t="n">
-        <v>1177.981643776798</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="D44" t="n">
-        <v>1177.981643776798</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="E44" t="n">
-        <v>792.1933911785536</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F44" t="n">
-        <v>381.2074863889461</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7676,22 +7676,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018223</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018223</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.149091018223</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X44" t="n">
-        <v>2323.683332757143</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y44" t="n">
-        <v>1933.544000781331</v>
+        <v>1167.455337753612</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7725,25 +7725,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7770,7 +7770,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="46">
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C46" t="n">
         <v>53.94298182036446</v>
@@ -7837,19 +7837,19 @@
         <v>728.1289842064343</v>
       </c>
       <c r="U46" t="n">
-        <v>443.6717438918015</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V46" t="n">
-        <v>443.6717438918015</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W46" t="n">
-        <v>443.6717438918015</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X46" t="n">
-        <v>443.6717438918015</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9495,7 +9495,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9963,7 +9963,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10440,7 +10440,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10914,7 +10914,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>103.0033205926919</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>75.95007493481333</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22711,16 +22711,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>56.82580834555225</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22747,13 +22747,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -22781,10 +22781,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22796,13 +22796,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>89.79231049789962</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>63.42512936292485</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,28 +22829,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22960,10 +22960,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>96.5672750069272</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,7 +22984,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -22993,7 +22993,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>80.49006577330459</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -23024,22 +23024,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>74.74425144011354</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,7 +23066,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>21.82883817864209</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -23075,16 +23075,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23185,7 +23185,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890127</v>
+        <v>82.85718120047564</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23200,7 +23200,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23261,16 +23261,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
@@ -23309,19 +23309,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>31.86743971662597</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,22 +23422,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>202.6835682680297</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23549,10 +23549,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>170.1021609796515</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>0.6037244977529781</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890125</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23695,19 +23695,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>277.0062774114811</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23777,16 +23777,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>31.86743971662639</v>
+        <v>224.5805635544637</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>131.0862127585214</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,16 +23902,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>61.2372351775965</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
@@ -23966,25 +23966,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>74.74425144011315</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>42.2057561529486</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24020,22 +24020,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>120.1681237664918</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24181,16 +24181,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>96.68503059263384</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24206,10 +24206,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>144.2707130727115</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>58.23741346252899</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24272,7 +24272,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24415,16 +24415,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3958356744439</v>
+        <v>96.0104806616813</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>144.2707130727114</v>
+        <v>30.22198880999298</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24497,7 +24497,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24652,16 +24652,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168084</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>51.04847948014728</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24683,7 +24683,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>133.6808629223864</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
@@ -24737,7 +24737,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>281.16579258081</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24844,22 +24844,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890125</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>135.6608973090996</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
@@ -24901,10 +24901,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24917,10 +24917,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>144.2707130727111</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24932,7 +24932,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>12.42908554841733</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24980,10 +24980,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>156.8416456268383</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25084,10 +25084,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25096,7 +25096,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25129,10 +25129,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25151,22 +25151,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>221.7905964226237</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>71.58757699062699</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25208,19 +25208,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25357,7 +25357,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>103.347338541018</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25372,13 +25372,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>63.37316471551381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25400,10 +25400,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>56.29943755183189</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25451,7 +25451,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25546,19 +25546,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25600,13 +25600,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>96.01048066168084</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>223.6273129116845</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>144.2707130727115</v>
+        <v>74.74425144011315</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25691,7 +25691,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>43.13981385480312</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
         <v>45.199959188537</v>
@@ -25828,13 +25828,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>33.22018880486402</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
@@ -25843,7 +25843,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25862,28 +25862,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>252.1446697057141</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>89.79231049789928</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,22 +25916,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26023,7 +26023,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26077,19 +26077,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>4.669206330491249</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>708423.8945386065</v>
+        <v>708423.8945386064</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>708423.8945386065</v>
+        <v>708423.8945386064</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>708423.8945386064</v>
+        <v>708423.8945386065</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>708423.8945386063</v>
+        <v>708423.8945386064</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>708423.8945386062</v>
+        <v>708423.8945386064</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>708423.8945386066</v>
+        <v>708423.8945386065</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>708423.8945386064</v>
+        <v>708423.8945386062</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>708423.8945386065</v>
+        <v>708423.8945386064</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>708423.8945386064</v>
+        <v>708423.8945386063</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>708423.8945386064</v>
+        <v>708423.8945386065</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>708423.8945386065</v>
+        <v>708423.8945386064</v>
       </c>
     </row>
   </sheetData>
@@ -26314,37 +26314,37 @@
         <v>303610.2405165455</v>
       </c>
       <c r="C2" t="n">
+        <v>303610.2405165455</v>
+      </c>
+      <c r="D2" t="n">
+        <v>303610.2405165455</v>
+      </c>
+      <c r="E2" t="n">
         <v>303610.2405165454</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>303610.2405165453</v>
-      </c>
-      <c r="E2" t="n">
-        <v>303610.2405165455</v>
-      </c>
-      <c r="F2" t="n">
-        <v>303610.2405165454</v>
       </c>
       <c r="G2" t="n">
         <v>303610.2405165454</v>
       </c>
       <c r="H2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="I2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="J2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="K2" t="n">
+        <v>303610.2405165456</v>
+      </c>
+      <c r="L2" t="n">
         <v>303610.2405165453</v>
       </c>
-      <c r="L2" t="n">
-        <v>303610.2405165455</v>
-      </c>
       <c r="M2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="N2" t="n">
         <v>303610.2405165454</v>
@@ -26353,7 +26353,7 @@
         <v>303610.2405165454</v>
       </c>
       <c r="P2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165456</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26433,7 +26433,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="H4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="I4" t="n">
         <v>513.1084990597035</v>
@@ -26442,7 +26442,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="K4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="L4" t="n">
         <v>513.1084990597036</v>
@@ -26451,13 +26451,13 @@
         <v>513.1084990597035</v>
       </c>
       <c r="N4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="O4" t="n">
         <v>513.1084990597035</v>
       </c>
       <c r="P4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,22 +26476,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340947</v>
@@ -26500,7 +26500,7 @@
         <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340947</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-369729.8252604682</v>
+        <v>-369729.825260468</v>
       </c>
       <c r="C6" t="n">
         <v>220238.0539540763</v>
       </c>
       <c r="D6" t="n">
-        <v>220238.0539540762</v>
+        <v>220238.0539540763</v>
       </c>
       <c r="E6" t="n">
         <v>253865.6539540763</v>
       </c>
       <c r="F6" t="n">
-        <v>253865.6539540763</v>
+        <v>253865.6539540761</v>
       </c>
       <c r="G6" t="n">
         <v>253865.6539540762</v>
       </c>
       <c r="H6" t="n">
-        <v>253865.6539540763</v>
+        <v>253865.6539540764</v>
       </c>
       <c r="I6" t="n">
         <v>253865.6539540762</v>
       </c>
       <c r="J6" t="n">
-        <v>77442.43476148322</v>
+        <v>77442.43476148334</v>
       </c>
       <c r="K6" t="n">
+        <v>253865.6539540764</v>
+      </c>
+      <c r="L6" t="n">
         <v>253865.6539540761</v>
-      </c>
-      <c r="L6" t="n">
-        <v>253865.6539540763</v>
       </c>
       <c r="M6" t="n">
         <v>253865.6539540762</v>
       </c>
       <c r="N6" t="n">
-        <v>253865.6539540763</v>
+        <v>253865.6539540762</v>
       </c>
       <c r="O6" t="n">
-        <v>253865.6539540763</v>
+        <v>253865.6539540762</v>
       </c>
       <c r="P6" t="n">
-        <v>253865.6539540762</v>
+        <v>253865.6539540764</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26796,22 +26796,22 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545557</v>
@@ -26820,7 +26820,7 @@
         <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545557</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
-        <v>87.78329382423996</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31139,7 +31139,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31382,7 +31382,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>111.734380307287</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
@@ -31607,10 +31607,10 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>56.98116194942315</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576415</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31841,7 +31841,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
-        <v>115.4815392304395</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
         <v>176.4169820478007</v>
@@ -31859,7 +31859,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
         <v>50.44659727034982</v>
@@ -32075,10 +32075,10 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>115.4815392304395</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
         <v>176.4169820478007</v>
@@ -32096,7 +32096,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
         <v>50.44659727034982</v>
@@ -32318,7 +32318,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
-        <v>56.98116194942338</v>
+        <v>132.9984977071305</v>
       </c>
       <c r="M18" t="n">
         <v>205.8702969983122</v>
@@ -32470,7 +32470,7 @@
         <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K20" t="n">
         <v>193.1674799081577</v>
@@ -32549,10 +32549,10 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>87.78329382423996</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L21" t="n">
         <v>176.4169820478007</v>
@@ -32789,7 +32789,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L24" t="n">
         <v>176.4169820478007</v>
@@ -32807,7 +32807,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
         <v>50.44659727034982</v>
@@ -32947,7 +32947,7 @@
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.167479908158</v>
       </c>
       <c r="L26" t="n">
         <v>239.6413398630669</v>
@@ -33029,7 +33029,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L27" t="n">
-        <v>56.98116194942361</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M27" t="n">
         <v>205.8702969983122</v>
@@ -33260,10 +33260,10 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
-        <v>131.2017781649102</v>
+        <v>115.4815392304395</v>
       </c>
       <c r="L30" t="n">
         <v>176.4169820478007</v>
@@ -33281,7 +33281,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
-        <v>60.29709682323596</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>50.44659727034982</v>
@@ -33439,7 +33439,7 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
-        <v>163.9882055044143</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
         <v>95.39071536633797</v>
@@ -33503,7 +33503,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L33" t="n">
-        <v>56.98116194942361</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M33" t="n">
         <v>205.8702969983122</v>
@@ -33740,7 +33740,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L36" t="n">
-        <v>176.4169820478007</v>
+        <v>132.99849770713</v>
       </c>
       <c r="M36" t="n">
         <v>205.8702969983122</v>
@@ -33898,7 +33898,7 @@
         <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M38" t="n">
         <v>266.6471645405367</v>
@@ -33986,7 +33986,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O39" t="n">
-        <v>73.87984549392741</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
         <v>155.1528646479577</v>
@@ -34229,7 +34229,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R42" t="n">
         <v>50.44659727034982</v>
@@ -34381,7 +34381,7 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119869</v>
       </c>
       <c r="P44" t="n">
         <v>218.3719038954667</v>
@@ -34445,7 +34445,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34466,7 +34466,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R45" t="n">
         <v>50.44659727034982</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,10 +34787,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>242.1053372686591</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35507,7 +35507,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>242.1053372686591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35744,7 +35744,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>289.2671274730084</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M18" t="n">
         <v>529.4413268262938</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K20" t="n">
         <v>297.2230414343419</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36215,7 +36215,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36455,7 +36455,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343422</v>
       </c>
       <c r="L26" t="n">
         <v>421.5361394435301</v>
@@ -36677,13 +36677,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
         <v>297.2230414343419</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>242.1053372686591</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36929,7 +36929,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730635</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.9975062898695</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
         <v>529.4413268262938</v>
@@ -37160,7 +37160,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M36" t="n">
         <v>529.4413268262938</v>
@@ -37403,7 +37403,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M38" t="n">
         <v>485.8144648060965</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37634,7 +37634,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>325.1459203262125</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37877,7 +37877,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38029,7 +38029,7 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530455</v>
       </c>
       <c r="P44" t="n">
         <v>308.9376163116798</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38114,7 +38114,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1359754.419263765</v>
+        <v>1388744.690012906</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112794.8912839466</v>
+        <v>139780.7820207428</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728815</v>
+        <v>8859705.390340978</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8191592.578713061</v>
+        <v>8260328.549612711</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>178.557045412178</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>251.8021835353216</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.591242632523</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755638</v>
+        <v>18.37682225755661</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -835,10 +837,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H5" t="n">
-        <v>260.4976434014323</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1060,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>144.5450396847797</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1133,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>181.4741358095196</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>32.64956439616962</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>63.57678144609353</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1312,7 +1314,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>339.0399185806814</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1415,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>284.5615160058697</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1616,10 +1618,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>53.06513659042572</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.1485339723819</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1771,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1847,16 +1849,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>53.06513659042572</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1889,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>26.64360395382558</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.74576742341589</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>173.637167941063</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2078,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H20" t="n">
-        <v>281.7170166114086</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2293,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>129.0246247964033</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,10 +2320,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>355.546756558266</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2369,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>24.25641376481878</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.0555388225931</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>129.024624796403</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2558,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>383.562181210802</v>
+        <v>355.0718416342762</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2609,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2764,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>223.1498336210772</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>280.1033070984085</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2947,31 +2949,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>18.37682225755661</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>153.055538822593</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H32" t="n">
-        <v>311.4936872159398</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3092,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>22.99033455509902</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3196,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3208,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3275,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>342.196593030168</v>
+        <v>313.5961800444755</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>43.31785343913981</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>323.9918595228957</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3712,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>28.51033041214353</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3740,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>339.0399185806818</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3791,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>44.74654572587463</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3907,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3940,25 +3942,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>178.9253501451549</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>128.7835007017902</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>108.1159043096326</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>129.7857003665477</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4068,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S45" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T45" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>128.7835007017901</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>79.54839106358246</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1352.60098147425</v>
+        <v>1031.077791139709</v>
       </c>
       <c r="C2" t="n">
-        <v>983.6384645338385</v>
+        <v>1031.077791139709</v>
       </c>
       <c r="D2" t="n">
-        <v>625.3727659270879</v>
+        <v>1031.077791139709</v>
       </c>
       <c r="E2" t="n">
-        <v>625.3727659270879</v>
+        <v>645.2895385414649</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>234.3036337518574</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>234.3036337518574</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V2" t="n">
-        <v>1739.200821538372</v>
+        <v>2147.451536646715</v>
       </c>
       <c r="W2" t="n">
-        <v>1739.200821538372</v>
+        <v>1794.682881376601</v>
       </c>
       <c r="X2" t="n">
-        <v>1739.200821538372</v>
+        <v>1421.217123115521</v>
       </c>
       <c r="Y2" t="n">
-        <v>1739.200821538372</v>
+        <v>1031.077791139709</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4428,22 +4430,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816298</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837194</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220518</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
         <v>235.9284171545819</v>
@@ -4486,7 +4488,7 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1267.312047941846</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C5" t="n">
-        <v>1267.312047941846</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D5" t="n">
-        <v>1267.312047941846</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E5" t="n">
-        <v>881.5237953436019</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F5" t="n">
-        <v>470.5378905539944</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G5" t="n">
-        <v>470.5378905539944</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1640.777806202926</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1267.312047941846</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>1267.312047941846</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4640,28 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>576.3714747656866</v>
+        <v>390.7161657136784</v>
       </c>
       <c r="C8" t="n">
         <v>207.4089578252748</v>
@@ -4802,7 +4804,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2664.169733042294</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2664.169733042294</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2664.169733042294</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2410.407947680385</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2079.345060336814</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>1726.5764050667</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X8" t="n">
-        <v>1353.11064680562</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y8" t="n">
-        <v>962.9713148298083</v>
+        <v>777.3160057778002</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4890,16 +4892,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4908,16 +4910,16 @@
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E10" t="n">
-        <v>663.910013048764</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F10" t="n">
-        <v>517.0200655508536</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1920.409918978289</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C11" t="n">
-        <v>1551.447402037877</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D11" t="n">
-        <v>1193.181703431127</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E11" t="n">
-        <v>807.3934508328825</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F11" t="n">
-        <v>396.407546043275</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G11" t="n">
         <v>53.94298182036445</v>
@@ -5042,16 +5044,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5063,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X11" t="n">
-        <v>2697.149091018222</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y11" t="n">
-        <v>2307.009759042411</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5120,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641994</v>
+        <v>368.8844281164668</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598713</v>
+        <v>773.5003462121387</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1297.64725977017</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018223</v>
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>808.6937513590203</v>
+        <v>1273.280804219765</v>
       </c>
       <c r="C14" t="n">
-        <v>439.7312344186087</v>
+        <v>904.3182872793534</v>
       </c>
       <c r="D14" t="n">
-        <v>439.7312344186087</v>
+        <v>904.3182872793534</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036445</v>
+        <v>518.5300346811091</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036445</v>
+        <v>107.5441298915015</v>
       </c>
       <c r="G14" t="n">
         <v>53.94298182036445</v>
@@ -5276,7 +5278,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
         <v>463.9616490733126</v>
@@ -5306,22 +5308,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U14" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V14" t="n">
-        <v>2311.667336930148</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W14" t="n">
-        <v>1958.898681660034</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X14" t="n">
-        <v>1585.432923398954</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y14" t="n">
-        <v>1195.293591423142</v>
+        <v>1659.880644283887</v>
       </c>
     </row>
     <row r="15">
@@ -5373,7 +5375,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C16" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D16" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E16" t="n">
-        <v>99.59950625323012</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F16" t="n">
-        <v>99.59950625323012</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G16" t="n">
-        <v>99.59950625323012</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H16" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I16" t="n">
         <v>99.59950625323012</v>
@@ -5455,31 +5457,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W16" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X16" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y16" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>781.1711973675267</v>
+        <v>1273.280804219765</v>
       </c>
       <c r="C17" t="n">
-        <v>412.2086804271149</v>
+        <v>904.3182872793534</v>
       </c>
       <c r="D17" t="n">
-        <v>53.94298182036445</v>
+        <v>904.3182872793534</v>
       </c>
       <c r="E17" t="n">
-        <v>53.94298182036445</v>
+        <v>518.5300346811091</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036445</v>
+        <v>107.5441298915015</v>
       </c>
       <c r="G17" t="n">
         <v>53.94298182036445</v>
@@ -5513,19 +5515,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5543,22 +5545,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U17" t="n">
-        <v>2615.207670282225</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V17" t="n">
-        <v>2284.144782938654</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W17" t="n">
-        <v>1931.37612766854</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X17" t="n">
-        <v>1557.91036940746</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y17" t="n">
-        <v>1167.771037431648</v>
+        <v>1659.880644283887</v>
       </c>
     </row>
     <row r="18">
@@ -5595,7 +5597,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L18" t="n">
         <v>670.8219208598713</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>530.7441767280769</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C19" t="n">
-        <v>361.80799380017</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D19" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E19" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F19" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G19" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
         <v>53.94298182036445</v>
@@ -5701,22 +5703,22 @@
         <v>579.9823256406182</v>
       </c>
       <c r="T19" t="n">
-        <v>579.9823256406182</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="U19" t="n">
-        <v>579.9823256406182</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="V19" t="n">
-        <v>579.9823256406182</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="W19" t="n">
-        <v>579.9823256406182</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="X19" t="n">
-        <v>579.9823256406182</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="Y19" t="n">
-        <v>579.9823256406182</v>
+        <v>404.5912469122717</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1167.455337753612</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C20" t="n">
-        <v>1167.455337753612</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D20" t="n">
-        <v>1167.455337753612</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E20" t="n">
-        <v>1167.455337753612</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F20" t="n">
-        <v>756.4694329640045</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G20" t="n">
-        <v>338.5056248621913</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
@@ -5750,13 +5752,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5774,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U20" t="n">
-        <v>2224.752638628377</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V20" t="n">
-        <v>1893.689751284806</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W20" t="n">
-        <v>1540.921096014692</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X20" t="n">
-        <v>1167.455337753612</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y20" t="n">
-        <v>1167.455337753612</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="21">
@@ -5805,67 +5807,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036422</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.200144220494</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5941,13 +5943,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>438.9553738610022</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V22" t="n">
-        <v>184.2708856551153</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W22" t="n">
-        <v>184.2708856551153</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X22" t="n">
         <v>53.94298182036445</v>
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1937.083492693021</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C23" t="n">
-        <v>1568.120975752609</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D23" t="n">
-        <v>1209.855277145859</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
-        <v>824.0670245476144</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>413.0811197580069</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2672.647662972951</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X23" t="n">
-        <v>2323.683332757143</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y23" t="n">
-        <v>2323.683332757143</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204945</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641994</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M24" t="n">
         <v>1194.968834417902</v>
@@ -6111,7 +6113,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632153</v>
+        <v>546.4805193761946</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>377.5443364482877</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>377.5443364482877</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>377.5443364482877</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>377.5443364482877</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>208.5445361866201</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T25" t="n">
-        <v>2566.821187183472</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U25" t="n">
-        <v>2277.64757683804</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V25" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W25" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X25" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y25" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1238.153685885794</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="C26" t="n">
-        <v>1238.153685885794</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="D26" t="n">
-        <v>1238.153685885794</v>
+        <v>1209.375565101425</v>
       </c>
       <c r="E26" t="n">
-        <v>852.3654332875499</v>
+        <v>823.5873125031803</v>
       </c>
       <c r="F26" t="n">
-        <v>441.3795284979423</v>
+        <v>412.6014077135728</v>
       </c>
       <c r="G26" t="n">
         <v>53.94298182036446</v>
@@ -6227,10 +6229,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6248,28 +6250,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U26" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V26" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W26" t="n">
-        <v>2388.358616186807</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X26" t="n">
-        <v>2014.892857925728</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="Y26" t="n">
-        <v>1624.753525949916</v>
+        <v>1954.241103772297</v>
       </c>
     </row>
     <row r="27">
@@ -6315,13 +6317,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662039</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T28" t="n">
-        <v>2566.821187183472</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U28" t="n">
-        <v>2277.64757683804</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V28" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W28" t="n">
-        <v>2022.963088632153</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X28" t="n">
-        <v>2022.963088632153</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1491.915471247703</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C29" t="n">
-        <v>1491.915471247703</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D29" t="n">
-        <v>1133.649772640952</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E29" t="n">
-        <v>747.861520042708</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F29" t="n">
-        <v>336.8756152531004</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X29" t="n">
-        <v>2268.654643287636</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y29" t="n">
-        <v>1878.515311311824</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="30">
@@ -6516,67 +6518,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204941</v>
       </c>
       <c r="K30" t="n">
-        <v>368.8844281164668</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L30" t="n">
-        <v>773.5003462121387</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M30" t="n">
-        <v>1297.64725977017</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
-        <v>1851.373795869721</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2291.509718890065</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6595,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>728.1289842064343</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C31" t="n">
-        <v>728.1289842064343</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D31" t="n">
-        <v>728.1289842064343</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="E31" t="n">
-        <v>709.5665374816297</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="F31" t="n">
-        <v>562.6765899837193</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="G31" t="n">
-        <v>393.6767897220517</v>
+        <v>208.54453618662</v>
       </c>
       <c r="H31" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6628,43 +6630,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2310.5492509541</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C32" t="n">
-        <v>1941.586734013689</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D32" t="n">
-        <v>1583.321035406938</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E32" t="n">
-        <v>1197.532782808694</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F32" t="n">
-        <v>786.5468780190865</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G32" t="n">
-        <v>368.5830699172734</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6722,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X32" t="n">
-        <v>2697.149091018222</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y32" t="n">
-        <v>2697.149091018222</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="33">
@@ -6753,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
         <v>2188.831293537797</v>
@@ -6798,22 +6800,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6832,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6865,43 +6867,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064343</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064343</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064343</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W34" t="n">
-        <v>438.7118141694737</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X34" t="n">
-        <v>438.7118141694737</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y34" t="n">
-        <v>438.7118141694737</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1512.612574238668</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="C35" t="n">
-        <v>1143.650057298256</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="D35" t="n">
-        <v>785.3843586915057</v>
+        <v>1167.480957434959</v>
       </c>
       <c r="E35" t="n">
-        <v>399.5961060932614</v>
+        <v>781.6927048367149</v>
       </c>
       <c r="F35" t="n">
-        <v>399.5961060932614</v>
+        <v>370.7068000471074</v>
       </c>
       <c r="G35" t="n">
         <v>53.94298182036445</v>
@@ -6935,19 +6937,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6977,10 +6979,10 @@
         <v>2289.351746278601</v>
       </c>
       <c r="X35" t="n">
-        <v>2289.351746278601</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y35" t="n">
-        <v>1899.21241430279</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7035,28 +7037,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R37" t="n">
-        <v>684.3735766921516</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S37" t="n">
-        <v>684.3735766921516</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T37" t="n">
-        <v>684.3735766921516</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U37" t="n">
-        <v>684.3735766921516</v>
+        <v>2567.064746875</v>
       </c>
       <c r="V37" t="n">
-        <v>684.3735766921516</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W37" t="n">
-        <v>684.3735766921516</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X37" t="n">
-        <v>456.3840257941342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y37" t="n">
-        <v>235.5914466506042</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1546.94416071721</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C38" t="n">
-        <v>1177.981643776798</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D38" t="n">
-        <v>1177.981643776798</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E38" t="n">
-        <v>792.1933911785536</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F38" t="n">
-        <v>381.2074863889461</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7190,34 +7192,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X38" t="n">
-        <v>2323.683332757143</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y38" t="n">
-        <v>1933.544000781331</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7250,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>517.6822058285749</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064343</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064343</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V40" t="n">
-        <v>699.3306706588146</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W40" t="n">
-        <v>699.3306706588146</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
-        <v>699.3306706588146</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>699.3306706588146</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1920.409918978289</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C41" t="n">
-        <v>1551.447402037878</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D41" t="n">
-        <v>1193.181703431127</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E41" t="n">
-        <v>807.393450832883</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>396.4075460432754</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036446</v>
@@ -7421,7 +7423,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7439,22 +7441,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018223</v>
+        <v>2651.950559981986</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018223</v>
+        <v>2398.188774620077</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018223</v>
+        <v>2398.188774620077</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018223</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="X41" t="n">
-        <v>2697.149091018223</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y41" t="n">
-        <v>2307.009759042411</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7490,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C43" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D43" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E43" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036446</v>
@@ -7573,46 +7575,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U43" t="n">
-        <v>369.8327295799424</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V43" t="n">
-        <v>369.8327295799424</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W43" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X43" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y43" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1167.455337753612</v>
+        <v>1397.061718429189</v>
       </c>
       <c r="C44" t="n">
-        <v>1167.455337753612</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="D44" t="n">
-        <v>1167.455337753612</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="E44" t="n">
-        <v>1036.358670716696</v>
+        <v>902.0654816798005</v>
       </c>
       <c r="F44" t="n">
-        <v>625.3727659270879</v>
+        <v>491.079576890193</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M44" t="n">
-        <v>1362.238747280443</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O44" t="n">
-        <v>2238.843319642689</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018223</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018223</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T44" t="n">
-        <v>2478.514423990286</v>
+        <v>3484.789894598736</v>
       </c>
       <c r="U44" t="n">
-        <v>2224.752638628377</v>
+        <v>3231.098191343887</v>
       </c>
       <c r="V44" t="n">
-        <v>1893.689751284806</v>
+        <v>2900.035304000317</v>
       </c>
       <c r="W44" t="n">
-        <v>1540.921096014692</v>
+        <v>2547.266648730202</v>
       </c>
       <c r="X44" t="n">
-        <v>1167.455337753612</v>
+        <v>2173.800890469122</v>
       </c>
       <c r="Y44" t="n">
-        <v>1167.455337753612</v>
+        <v>1783.661558493311</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036446</v>
+        <v>192.6510469835158</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>318.0086070413532</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>793.1498020950429</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1433.695151562147</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>2106.900843814929</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U45" t="n">
-        <v>2061.714576167582</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237151</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036446</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036446</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036446</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036446</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K46" t="n">
-        <v>110.2451748866326</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064343</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064343</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064343</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U46" t="n">
-        <v>598.044640063212</v>
+        <v>784.7743001636425</v>
       </c>
       <c r="V46" t="n">
-        <v>343.3601518573251</v>
+        <v>784.7743001636425</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036446</v>
+        <v>704.4223899984077</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036446</v>
+        <v>476.4328391003903</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036446</v>
+        <v>255.6402599568602</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8766,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8945,7 +8947,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9021,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9495,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9963,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10197,7 +10199,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10440,7 +10442,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10914,13 +10916,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11391,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>145.3657273521792</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>75.95007493481333</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22711,7 +22713,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890128</v>
+        <v>128.0571403890125</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22747,7 +22749,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22796,13 +22798,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H5" t="n">
-        <v>63.42512936292485</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22948,22 +22950,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,16 +22986,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>80.49006577330459</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -23021,7 +23023,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>183.798755961488</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23066,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>21.82883817864209</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23185,7 +23187,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>82.85718120047564</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23200,7 +23202,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23224,7 +23226,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>74.74425144011354</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23321,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>85.16958467259929</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23504,10 +23506,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>360.7190334303693</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23546,16 +23548,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0.6037244977529781</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23659,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>277.0062774114811</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23735,16 +23737,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>360.7190334303693</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23783,16 +23785,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>224.5805635544637</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>131.0862127585214</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>51.39793751702126</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
@@ -23966,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H20" t="n">
-        <v>42.2057561529486</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24145,10 +24147,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24181,7 +24183,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>96.68503059263386</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>96.68503059263384</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24206,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>58.23741346252899</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24257,10 +24259,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>192.191906592839</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24272,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>3.115350019202054</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923382</v>
@@ -24415,13 +24417,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>96.0104806616813</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24446,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>30.22198880999298</v>
+        <v>58.71232838651878</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24497,16 +24499,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24652,22 +24654,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>96.01048066168084</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551381</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24680,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24692,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>133.6808629223864</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24725,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24835,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>128.0571403890125</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>3.115350019202168</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24920,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24929,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H32" t="n">
-        <v>12.42908554841733</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24980,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.8416456268383</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25084,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25096,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>62.69861478456104</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25163,10 +25165,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>71.58757699062699</v>
+        <v>100.1879899763195</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25217,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25357,7 +25359,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>103.347338541018</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25366,19 +25368,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401879</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25403,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>89.79231049789928</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25570,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168073</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>223.6273129116845</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25628,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>74.74425144011315</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>171.7017746317832</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25795,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25807,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,25 +25830,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
-        <v>33.22018880486402</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>257.156987461375</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>252.1446697057141</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26035,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U46" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>206.9746072730085</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>708423.8945386064</v>
+        <v>708423.8945386065</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>708423.8945386064</v>
+        <v>708423.8945386065</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>708423.8945386065</v>
+        <v>708423.8945386064</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>708423.8945386064</v>
+        <v>708423.8945386063</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>708423.8945386065</v>
+        <v>708423.8945386064</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>708423.8945386064</v>
+        <v>708423.8945386065</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>708423.8945386065</v>
+        <v>708423.8945386063</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>708423.8945386062</v>
+        <v>708423.8945386063</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>708423.8945386064</v>
+        <v>708423.8945386063</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>708423.8945386065</v>
+        <v>708423.8945386064</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>708423.8945386064</v>
+        <v>827452.3564486428</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="C2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="D2" t="n">
         <v>303610.2405165455</v>
       </c>
       <c r="E2" t="n">
+        <v>303610.2405165455</v>
+      </c>
+      <c r="F2" t="n">
+        <v>303610.2405165455</v>
+      </c>
+      <c r="G2" t="n">
+        <v>303610.2405165455</v>
+      </c>
+      <c r="H2" t="n">
         <v>303610.2405165454</v>
       </c>
-      <c r="F2" t="n">
-        <v>303610.2405165453</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>303610.2405165454</v>
-      </c>
-      <c r="H2" t="n">
-        <v>303610.2405165455</v>
-      </c>
-      <c r="I2" t="n">
-        <v>303610.2405165453</v>
       </c>
       <c r="J2" t="n">
         <v>303610.2405165455</v>
       </c>
       <c r="K2" t="n">
-        <v>303610.2405165456</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="L2" t="n">
         <v>303610.2405165453</v>
       </c>
       <c r="M2" t="n">
-        <v>303610.2405165453</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="N2" t="n">
         <v>303610.2405165454</v>
       </c>
       <c r="O2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="P2" t="n">
-        <v>303610.2405165456</v>
+        <v>354622.4384779897</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>202824.0593593173</v>
       </c>
     </row>
     <row r="4">
@@ -26433,7 +26435,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="H4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="I4" t="n">
         <v>513.1084990597035</v>
@@ -26442,22 +26444,22 @@
         <v>513.1084990597035</v>
       </c>
       <c r="K4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="L4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="M4" t="n">
         <v>513.1084990597035</v>
       </c>
       <c r="N4" t="n">
+        <v>513.1084990597035</v>
+      </c>
+      <c r="O4" t="n">
         <v>513.1084990597036</v>
       </c>
-      <c r="O4" t="n">
-        <v>513.1084990597035</v>
-      </c>
       <c r="P4" t="n">
-        <v>513.1084990597036</v>
+        <v>639.5264553066584</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26488,28 +26490,28 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>69171.54328360136</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-369729.825260468</v>
+        <v>-369729.8252604683</v>
       </c>
       <c r="C6" t="n">
         <v>220238.0539540763</v>
@@ -26528,40 +26530,40 @@
         <v>220238.0539540763</v>
       </c>
       <c r="E6" t="n">
+        <v>253865.6539540764</v>
+      </c>
+      <c r="F6" t="n">
         <v>253865.6539540763</v>
       </c>
-      <c r="F6" t="n">
-        <v>253865.6539540761</v>
-      </c>
       <c r="G6" t="n">
+        <v>253865.6539540763</v>
+      </c>
+      <c r="H6" t="n">
         <v>253865.6539540762</v>
       </c>
-      <c r="H6" t="n">
-        <v>253865.6539540764</v>
-      </c>
       <c r="I6" t="n">
-        <v>253865.6539540762</v>
+        <v>253865.6539540763</v>
       </c>
       <c r="J6" t="n">
         <v>77442.43476148334</v>
       </c>
       <c r="K6" t="n">
-        <v>253865.6539540764</v>
+        <v>253865.6539540763</v>
       </c>
       <c r="L6" t="n">
-        <v>253865.6539540761</v>
+        <v>253865.6539540762</v>
       </c>
       <c r="M6" t="n">
-        <v>253865.6539540762</v>
+        <v>253865.6539540763</v>
       </c>
       <c r="N6" t="n">
-        <v>253865.6539540762</v>
+        <v>253865.6539540763</v>
       </c>
       <c r="O6" t="n">
-        <v>253865.6539540762</v>
+        <v>253865.6539540763</v>
       </c>
       <c r="P6" t="n">
-        <v>253865.6539540764</v>
+        <v>81987.30937976438</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26771,13 +26773,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>593.4761003380635</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26808,28 +26810,28 @@
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>924.8974390827563</v>
       </c>
     </row>
   </sheetData>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>215.7324361209768</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>250.6101663282005</v>
       </c>
     </row>
   </sheetData>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31039,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31139,7 +31141,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
@@ -31151,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,7 +31612,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>162.4518126576415</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323505</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31841,7 +31843,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>115.4815392304395</v>
       </c>
       <c r="L12" t="n">
         <v>176.4169820478007</v>
@@ -31859,7 +31861,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>50.44659727034982</v>
@@ -31987,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32011,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32099,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32184,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32224,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32248,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L18" t="n">
-        <v>132.9984977071305</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
         <v>205.8702969983122</v>
@@ -32336,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32421,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J20" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
         <v>193.1674799081577</v>
@@ -32485,22 +32487,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32573,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32643,13 +32645,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32658,7 +32660,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32789,13 +32791,13 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
-        <v>87.78329382423996</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L24" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M24" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993485</v>
       </c>
       <c r="N24" t="n">
         <v>211.31907117367</v>
@@ -32947,7 +32949,7 @@
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.167479908158</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
         <v>239.6413398630669</v>
@@ -33041,10 +33043,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>139.432625713487</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>50.44659727034982</v>
@@ -33263,7 +33265,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
-        <v>115.4815392304395</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L30" t="n">
         <v>176.4169820478007</v>
@@ -33281,7 +33283,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
         <v>50.44659727034982</v>
@@ -33503,7 +33505,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L33" t="n">
-        <v>176.4169820478007</v>
+        <v>132.99849770713</v>
       </c>
       <c r="M33" t="n">
         <v>205.8702969983122</v>
@@ -33740,7 +33742,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L36" t="n">
-        <v>132.99849770713</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M36" t="n">
         <v>205.8702969983122</v>
@@ -33889,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630672</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33916,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33989,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34065,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34126,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34153,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653279</v>
       </c>
       <c r="L42" t="n">
         <v>176.4169820478007</v>
@@ -34226,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
-        <v>60.29709682323596</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34302,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J44" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338304</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119869</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044137</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649102</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>176.4169820478007</v>
+        <v>247.654635540748</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N45" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O45" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>60.29709682323596</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L46" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M46" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N46" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S46" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,10 +34789,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35030,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35258,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
-        <v>214.4070918624596</v>
+        <v>242.1053372686591</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35507,7 +35509,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35659,13 +35661,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35738,13 +35740,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35896,10 +35898,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35963,10 +35965,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L18" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
         <v>529.4413268262938</v>
@@ -35975,7 +35977,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
@@ -36042,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
         <v>297.2230414343419</v>
@@ -36133,10 +36135,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36212,13 +36214,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P21" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36294,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36434,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N24" t="n">
         <v>559.3197334338902</v>
@@ -36595,7 +36597,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343422</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
         <v>421.5361394435301</v>
@@ -36683,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>323.920986939094</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,13 +36913,13 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
-        <v>242.1053372686591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N30" t="n">
         <v>559.3197334338902</v>
@@ -36929,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,7 +37153,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M33" t="n">
         <v>529.4413268262938</v>
@@ -37160,7 +37162,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
@@ -37382,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37540,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37631,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37868,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530455</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713857</v>
+        <v>479.940601064333</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262938</v>
+        <v>647.0155045122261</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730635</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L46" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M46" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N46" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O46" t="n">
-        <v>120.8664146557981</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
